--- a/Drives/Floppy/Cabling.xlsx
+++ b/Drives/Floppy/Cabling.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Drives\Floppy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5534117F-7AEF-4D0A-8F4F-E888789DA57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DF17FB-900B-4DCB-B35E-BB6601A171B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A068408F-C802-48E6-A06D-A6009BCD9F51}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="68">
   <si>
     <t>PIN</t>
     <phoneticPr fontId="1"/>
@@ -294,6 +295,19 @@
   </si>
   <si>
     <t>Write Protect (36)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FINCH ON FFC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Drive Ready (28~34)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FLOPPY ON FFC
+(Pin on Drive)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -326,12 +340,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -340,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -355,6 +378,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,13 +707,331 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F533AB8-D6CA-4EDF-875A-F1A9CD29648A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="23.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4">
+        <v>48</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4">
+        <v>28</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <v>26</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4">
+        <v>24</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4">
+        <v>16</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4">
+        <v>14</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4">
+        <v>12</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4">
+        <v>10</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4">
+        <v>6</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4">
+        <v>4</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9C190A-7A9C-407F-8B61-C17BF9E384FA}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B3:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -698,24 +1054,24 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="5"/>
       <c r="J3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="1">
